--- a/data/trans_bre/CONS_HIP-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,31%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,32; 0,89</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 11,29</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 4,02</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 2,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,9; 128,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>651,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1013,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 3,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 3,96</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 4,57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 5,53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,76; 385,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,24; 268,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>277,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-8,12%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 11,02</t>
+          <t>-3,43; 2,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 5,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,49</t>
+          <t>-5,22; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,06; 681,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,67; 135,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,92; 976,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,01; 86,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,31%</t>
+          <t>158,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>319,26%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>207,16%</t>
+          <t>24,71%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,86</t>
+          <t>-0,99; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 2,58</t>
+          <t>2,01; 11,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,17</t>
+          <t>-0,86; 4,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,74</t>
+          <t>-3,27; 7,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-19,45; 118,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,59; 121,98</t>
+          <t>29,33; 693,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-18,94; 143,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,32; 132,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>153,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>135,45%</t>
+          <t>79,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>423,99%</t>
+          <t>148,94%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,51</t>
+          <t>-1,17; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,18</t>
+          <t>5,08; 12,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,68</t>
+          <t>1,39; 10,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,59</t>
+          <t>4,66; 21,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 447,13</t>
+          <t>-15,3; 84,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 265,25</t>
+          <t>60,1; 289,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-71,04; 3214,27</t>
+          <t>9,31; 195,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>23,09; 329,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>372,64%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>220,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>90,0%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,07</t>
+          <t>3,09; 9,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 3,6</t>
+          <t>-7,88; 9,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,23</t>
+          <t>7,33; 14,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,14</t>
+          <t>0,5; 19,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,78; 1221,17</t>
+          <t>34,45; 179,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,83; 106,75</t>
+          <t>-68,97; 125,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 174,78</t>
+          <t>110,78; 380,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 319,79</t>
+          <t>-6,0; 260,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>85,46%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 5,51</t>
+          <t>8,49; 18,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,23</t>
+          <t>4,48; 17,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,7</t>
+          <t>4,27; 13,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,33</t>
+          <t>7,4; 26,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 169,26</t>
+          <t>42,7; 124,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 117,46</t>
+          <t>25,01; 170,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,07; 223,77</t>
+          <t>26,17; 124,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 116,46</t>
+          <t>28,33; 198,42</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>148,94%</t>
+          <t>109,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>116,64%</t>
+          <t>107,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>80,15%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,0</t>
+          <t>3,61; 6,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,09; 20,75</t>
+          <t>2,04; 7,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,7</t>
+          <t>3,75; 6,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 4,88</t>
+          <t>3,99; 9,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,41; 196,26</t>
+          <t>57,66; 116,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,93; 328,47</t>
+          <t>47,22; 211,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,89; 202,54</t>
+          <t>70,02; 154,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 94,76</t>
+          <t>40,55; 127,71</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>11,32</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>208,2%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>90,0%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>47,93%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>132,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 15,18</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 19,17</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 8,89</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>5,08; 11,0</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>112,33; 365,79</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-12,98; 257,68</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-23,8; 112,15</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>67,84; 229,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>16,36</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>13,42</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>75,37%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>85,46%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>72,45%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>81,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>5,63; 15,47</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 25,63</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 16,12</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>8,9; 17,54</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>31,53; 127,18</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>26,94; 192,4</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>36,74; 122,73</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>46,73; 125,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>106,83%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>80,22%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>99,58%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>95,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 7,36</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 9,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 6,43</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 5,56</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>72,86; 147,99</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>41,83; 128,95</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>65,2; 136,76</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>70,79; 126,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/CONS_HIP-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>121,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,89</t>
+          <t>-0,32; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 11,29</t>
+          <t>-1,26; 11,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 2,35</t>
+          <t>-8,44; 2,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-91,9; 128,85</t>
+          <t>-95,17; 109,86</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>651,93%</t>
+          <t>427,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,12</t>
+          <t>-0,0; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,96</t>
+          <t>0,25; 4,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,53</t>
+          <t>-2,43; 5,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 268,98</t>
+          <t>-48,35; 262,84</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>168,92%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,06</t>
+          <t>-0,62; 3,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,57</t>
+          <t>-2,94; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,28</t>
+          <t>-5,36; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 681,94</t>
+          <t>-45,13; 370,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,67; 135,18</t>
+          <t>-53,17; 162,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,01; 86,33</t>
+          <t>-61,52; 96,06</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,61</t>
+          <t>-1,3; 2,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,02</t>
+          <t>1,82; 11,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 7,81</t>
+          <t>-3,12; 7,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 118,51</t>
+          <t>-25,93; 87,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 693,72</t>
+          <t>25,31; 651,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 132,23</t>
+          <t>-32,03; 138,51</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,71</t>
+          <t>0,66; 5,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 12,62</t>
+          <t>5,29; 13,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 21,09</t>
+          <t>5,13; 21,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 84,29</t>
+          <t>9,16; 130,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,1; 289,57</t>
+          <t>58,26; 306,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,09; 329,63</t>
+          <t>24,92; 339,51</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,52</t>
+          <t>2,43; 9,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 9,24</t>
+          <t>-7,29; 9,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 19,17</t>
+          <t>0,83; 19,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,45; 179,75</t>
+          <t>20,91; 143,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,97; 125,81</t>
+          <t>-73,52; 125,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 260,39</t>
+          <t>-7,78; 258,66</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>76,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,49; 18,31</t>
+          <t>7,91; 17,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 17,5</t>
+          <t>5,55; 17,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 26,35</t>
+          <t>6,53; 26,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,7; 124,38</t>
+          <t>40,01; 120,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,01; 170,84</t>
+          <t>33,78; 173,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,33; 198,42</t>
+          <t>24,44; 184,84</t>
         </is>
       </c>
     </row>
@@ -1320,14 +1320,14 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>4,94</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
           <t>5,01</t>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,12</t>
+          <t>3,6; 6,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,11</t>
+          <t>2,01; 6,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 9,1</t>
+          <t>3,92; 9,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>57,66; 116,82</t>
+          <t>58,94; 124,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,22; 211,86</t>
+          <t>51,36; 199,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,55; 127,71</t>
+          <t>39,14; 130,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_HIP-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>269,85%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-46,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>145,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>121,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>250,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>145,89%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-46,31%</t>
         </is>
       </c>
     </row>
@@ -668,24 +668,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,87; 10,53</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 2,11</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 4,02</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-0,32; 0,93</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 11,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 4,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 2,11</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>-95,17; 109,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-95,17; 109,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>74,2%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33,88%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48,37%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>427,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1013,96%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>48,37%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -768,24 +768,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,43; 3,24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 5,78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 4,57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-0,0; 2,28</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 4,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 4,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 5,78</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-48,35; 262,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-48,76; 385,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,76; 385,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-48,35; 262,84</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,27</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-8,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>277,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>78,82%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>277,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-8,12%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,25; 2,98</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 3,37</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 5,96</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,62; 3,16</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 2,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 5,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,36; 3,37</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-46,93; 195,3</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-61,52; 96,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24,92; 976,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-45,13; 370,31</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-53,17; 162,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>24,92; 976,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-61,52; 96,06</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,6</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>32,59%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>14,4%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>158,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>45,68%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>24,71%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,04; 4,81</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 7,65</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 4,79</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-1,3; 2,82</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 11,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 4,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 7,65</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-14,96; 121,23</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-32,03; 138,51</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 143,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-25,93; 87,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>25,31; 651,67</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 143,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-32,03; 138,51</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,11</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,59</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,2</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,13</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>13,11</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>164,28%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>148,94%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>55,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>153,82%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>79,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>148,94%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5,71; 13,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 21,09</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 10,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>0,66; 5,88</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,29; 13,01</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 10,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 21,09</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>66,26; 313,69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24,92; 339,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 195,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>9,16; 130,89</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>58,26; 306,67</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,31; 195,67</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>24,92; 339,51</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,05</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10,37</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10,86</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>6,09</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,86</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>117,93%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>90,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>220,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>70,86%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>220,04%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>90,0%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>4,67; 13,4</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 19,1</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 14,39</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>2,43; 9,79</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 9,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,33; 14,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 19,1</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>43,09; 234,21</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 258,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>110,78; 380,37</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>20,91; 143,38</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-73,52; 125,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>110,78; 380,37</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 258,66</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>11,34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16,36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>12,91</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>11,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>16,36</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>81,8%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>85,46%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>62,47%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>76,13%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>83,45%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>62,47%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>85,46%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,7; 17,2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 26,5</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 13,97</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>7,91; 17,35</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 17,5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 13,97</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 26,5</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>32,34; 169,65</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 184,84</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26,17; 124,86</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>40,01; 120,13</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>33,78; 173,67</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>26,17; 124,86</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>24,44; 184,84</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>4,75</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>105,36%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>80,15%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>107,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>87,03%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>109,49%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>107,11%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>80,15%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3,99; 6,87</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 9,19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 6,33</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>3,6; 6,04</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 6,89</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 6,33</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>3,92; 9,19</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>69,51; 157,22</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39,14; 130,78</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>70,02; 154,98</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>58,94; 124,34</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>51,36; 199,73</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>70,02; 154,98</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>39,14; 130,78</t>
         </is>
       </c>
     </row>
